--- a/eccrm-base/base-web/src/resources/import_customer.xlsx
+++ b/eccrm-base/base-web/src/resources/import_customer.xlsx
@@ -16,48 +16,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+  <si>
+    <t>基本信息</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>其他信息</t>
+  </si>
   <si>
     <t>姓名</t>
   </si>
   <si>
-    <t>基本信息</t>
-  </si>
-  <si>
-    <t>联系方式</t>
+    <t>身份证号码</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>年龄段</t>
+  </si>
+  <si>
+    <t>婚姻状况</t>
+  </si>
+  <si>
+    <t>家庭人口数</t>
+  </si>
+  <si>
+    <t>手机1</t>
+  </si>
+  <si>
+    <t>手机2</t>
+  </si>
+  <si>
+    <t>手机3</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>微信</t>
+  </si>
+  <si>
+    <t>职业</t>
   </si>
   <si>
     <t>工作单位</t>
   </si>
   <si>
+    <t>学历</t>
+  </si>
+  <si>
+    <t>资产规模</t>
+  </si>
+  <si>
+    <t>车位号1</t>
+  </si>
+  <si>
+    <t>车位号2</t>
+  </si>
+  <si>
+    <t>车牌号</t>
+  </si>
+  <si>
+    <t>车型号</t>
+  </si>
+  <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>身份证号码</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>婚姻状况</t>
-  </si>
-  <si>
-    <t>家庭人口</t>
-  </si>
-  <si>
-    <t>手机1</t>
-  </si>
-  <si>
-    <t>手机2</t>
-  </si>
-  <si>
-    <t>手机3</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>微信</t>
   </si>
   <si>
     <t>必填</t>
@@ -68,9 +95,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -80,6 +107,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -89,25 +122,51 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10.5"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,6 +177,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -127,36 +194,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,26 +232,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,69 +284,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,97 +300,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,110 +480,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -532,41 +546,17 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,35 +576,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,6 +596,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,15 +632,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -668,170 +640,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -840,31 +815,49 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1211,108 +1204,171 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="13.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="1" customWidth="1"/>
+    <col min="11" max="12" width="11.5" style="1" customWidth="1"/>
+    <col min="13" max="19" width="10.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="21" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="26" customHeight="1" spans="1:20">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="12" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="19"/>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:20">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:12">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
+    <row r="3" ht="18" customHeight="1" spans="1:20">
+      <c r="A3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:12">
-      <c r="A3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+    <row r="4" spans="1:20">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:T1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
